--- a/biology/Zoologie/Fadet_commun/Fadet_commun.xlsx
+++ b/biology/Zoologie/Fadet_commun/Fadet_commun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenonympha pamphilus
 Le Fadet commun ou Procris (Coenonympha pamphilus) est une espèce de lépidoptères (papillons) paléarctiques appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Coenonympha.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit papillon de couleur ocre clair à marron clair présente d'importantes variations suivant les sous-espèces et les colonies. Le dessus, ocre, présente un ocelle noir cerclé de clair et centré par un point blanc à l'apex des antérieures. Il peut, dans certaines variations, présenter une bordure foncée.
 			Coenonympha pamphilus ♂  MHNT
@@ -548,11 +562,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il hiverne à l'état de chenille, et ce sont des chenilles de toutes les générations qui peuvent hiverner[1].
-Il vole en plusieurs générations, de février à novembre, leur nombre et la date d'émergence varient suivant la localisation de sa résidence[2].
-Plantes hôtes
-Ses plantes hôtes sont diverses poacées (graminées) : Poa annua, Festuca ovina, Festuca rubra, Anthoxanthum odoratum, Cynosurus cristatus, Dactylis glomerata, Nardus stricta, Deschampsia caespitosa, Deschampsia flexuosa[2],[3].
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il hiverne à l'état de chenille, et ce sont des chenilles de toutes les générations qui peuvent hiverner.
+Il vole en plusieurs générations, de février à novembre, leur nombre et la date d'émergence varient suivant la localisation de sa résidence.
 </t>
         </is>
       </c>
@@ -578,16 +595,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est présent en Afrique du Nord, dans toute l'Europe continentale, Turquie, Moyen-Orient, le nord et le centre de l'Asie[3].
-En Europe il est présent partout sauf dans certaines îles, Shetland, Orcades, Canaries, Açores, Madère, et Crête[2].
-En France métropolitaine il est présent dans tous les départements[4].
-Biotope
-Il réside dans les lieux herbus, prairies et friches jusqu'à 1 800 mètres.
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont diverses poacées (graminées) : Poa annua, Festuca ovina, Festuca rubra, Anthoxanthum odoratum, Cynosurus cristatus, Dactylis glomerata, Nardus stricta, Deschampsia caespitosa, Deschampsia flexuosa,.
 </t>
         </is>
       </c>
@@ -613,20 +632,198 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Afrique du Nord, dans toute l'Europe continentale, Turquie, Moyen-Orient, le nord et le centre de l'Asie.
+En Europe il est présent partout sauf dans certaines îles, Shetland, Orcades, Canaries, Açores, Madère, et Crête.
+En France métropolitaine il est présent dans tous les départements.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fadet_commun</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_commun</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les lieux herbus, prairies et friches jusqu'à 1 800 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fadet_commun</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_commun</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Coenonympha pamphilus a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Papilio pamphilus[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Coenonympha pamphilus a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Papilio pamphilus.
 La localité type est la Suède.
-Synonymie
-Papilio pamphilus Linnaeus, 1758 Protonyme
-Papilio lyllus Esper, 1805[6]
-Noms vernaculaires
-Le Fadet commun, Procris, Petit papillon des foins ou Pamphile se nomme Small Heath en anglais, Wiesenvögelchen ou Kleiner Heufalter ou Kälberauge en allemand et Nispola en espagnol.
-Taxinomie
-Liste des sous-espèces
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fadet_commun</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_commun</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Papilio pamphilus Linnaeus, 1758 Protonyme
+Papilio lyllus Esper, 1805</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fadet_commun</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_commun</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fadet commun, Procris, Petit papillon des foins ou Pamphile se nomme Small Heath en anglais, Wiesenvögelchen ou Kleiner Heufalter ou Kälberauge en allemand et Nispola en espagnol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fadet_commun</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_commun</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des sous-espèces
 Coenonympha pamphilus lyllus (Esper, 1806) — le Fadet punique.
 Coenonympha pamphilus marginata Heyne, 1894
 Coenonympha pamphilus fulvolactea Verity, 1926
@@ -635,41 +832,46 @@
 Coenonympha pamphilus juldusica Verity, 1926
 Coenonympha pamphilus ferghana Stauder, 1924
 Coenonympha pamphilus nitidissima Verity, 1924
-Coenonympha pamphilus asiaemontium Verity, 1924[3].
+Coenonympha pamphilus asiaemontium Verity, 1924.
 			Coenonympha pamphilus marginata ♀
 			Coenonympha pamphilus marginata ♀ △
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Fadet_commun</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fadet_commun</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fadet_commun</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_commun</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Le Fadet commun et l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Protection
-Il ne bénéficie pas de statut de protection particulier.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ne bénéficie pas de statut de protection particulier.
 </t>
         </is>
       </c>
